--- a/PubMed/pubmed.xlsx
+++ b/PubMed/pubmed.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TSL\Week2\langchain-ChatGLM\PubMed\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BF611A4-76FB-490C-A300-F214B0D311A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7270"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Result" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Result!$A$1:$A$39</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="447">
   <si>
     <t>pmid</t>
   </si>
@@ -454,34 +463,7 @@
     <t>NF-κB inhibition, Qishenyiqi dropping pills, UPLC-Q/TOF, anti-inflammatory, myocardial infarction</t>
   </si>
   <si>
-    <t>Effect of QiShenYiQi Pill on Myocardial Collagen Metabolism in Rats with Partial Abdominal Aortic Coarctation.</t>
-  </si>
-  <si>
-    <t>This study investigated the effect of QiShenYiQi pill (QSYQ) on myocardial collagen metabolism in rats with partial abdominal aortic coarctation and explored its mechanism of action. A series of assays were used to detect the effect and mechanism of QSYQ on systolic blood pressure, heart mass index, left ventricle mass index, HYP, expression of PICP, PIIINT, and CTX-I in serum, MMP-1, and TIMP-1 expression in myocardium. We observed that QSYQ can reduce the rate of myocardial collagen synthesis and increase the rate of myocardial collagen degradation. It also effectively improved the degree of myocardial fibrosis in partial abdominal aortic rats and it had a tendency to have a greater effect with longer treatment duration, which is related to the mechanism of regulation of MMP-1 and TIMP-1 expression in the myocardial rat.</t>
-  </si>
-  <si>
     <t>2015</t>
-  </si>
-  <si>
-    <t>2015/04/11</t>
-  </si>
-  <si>
-    <t>PMC4377429</t>
-  </si>
-  <si>
-    <t>10.1155/2015/415068</t>
-  </si>
-  <si>
-    <t>415068</t>
-  </si>
-  <si>
-    <t>S Lv,
-M Wu,
-M Li,
-Q Wang,
-X Wang,
-L Xu,
-J Zhang</t>
   </si>
   <si>
     <t>Cardioprotection against ischemia/reperfusion injury by QiShenYiQi Pill® via ameliorate of multiple mitochondrial dysfunctions.</t>
@@ -899,39 +881,6 @@
   </si>
   <si>
     <t>Acute myocardial infarction, Qishenyiqi, anti-inflammation, dyslipidaemia, group significance analysis</t>
-  </si>
-  <si>
-    <t>A critical courier role of volatile oils from Dalbergia odorifera for cardiac protection in vivo by QiShenYiQi.</t>
-  </si>
-  <si>
-    <t>Component-based Chinese medicine (CCM) is derived from traditional Chinese medicine but produced with modern pharmaceutical standard and clearer clinical indications. However, it still faces challenges of defining individual component contribution in the complex formula. Using QiShenYiQi (QSYQ) as a model CCM, we investigated the role of Dalbergia odorifera (DO), an herbal component, in preventing myocardial damage. We showed that in vitro, QSYQ exerted considerable protective activities on cardiomyocytes from H2O2-induced mitochondrial dysfunction with or without DO. However, in isolated rat hearts, myocardial protection by QSYQ was significantly weakened without DO. In everted gut sac model, DO significantly enhanced absorption of the major QSYQ ingredients in different regions of rat intestine. Finally, in in vivo mouse model of doxorubicin (DOX)-induced myocardial damage, only QSYQ, but not QiShenYiQi without DO (QSYQ-DO), exerted a full protection. Taken together, our results showed that instead of directly contributing to the myocardial protection, Dalbergia odorifera facilitates the major active ingredients absorption and increases their efficacy, eventually enhancing the in vivo potency of QSYQ. These findings may shed new lights on our understanding of the prescription compatibility theory, as well as the impacts of "courier herbs" in component-based Chinese medicine.</t>
-  </si>
-  <si>
-    <t>2017 Aug 04</t>
-  </si>
-  <si>
-    <t>2017/08/06</t>
-  </si>
-  <si>
-    <t>PMC5544742</t>
-  </si>
-  <si>
-    <t>10.1038/s41598-017-07659-x</t>
-  </si>
-  <si>
-    <t>7353</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>J Yu,
-W Zhang,
-Y Zhang,
-Y Wang,
-B Zhang,
-G Fan,
-Y Zhu</t>
   </si>
   <si>
     <t>QiShenYiQi pill attenuates atherosclerosis by promoting regulatory T cells, inhibiting T helper 17 cells and accelerating cholesterol excretion.</t>
@@ -1749,14 +1698,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1769,6 +1712,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1777,6 +1721,7 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1785,162 +1730,19 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1965,194 +1767,8 @@
         <bgColor rgb="FFB3FFB3"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2160,251 +1776,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2436,61 +1810,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2775,30 +2105,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:U41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B41" sqref="B41"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="72" customWidth="1"/>
     <col min="4" max="21" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:21">
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2863,7 +2192,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="112" spans="1:21">
+    <row r="2" spans="1:21" ht="113.15" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>19203810</v>
       </c>
@@ -2874,7 +2203,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="3">
-        <v>4.039</v>
+        <v>4.0389999999999997</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>23</v>
@@ -2928,7 +2257,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" ht="322" spans="1:21">
+    <row r="3" spans="1:21" ht="325.3" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>22240383</v>
       </c>
@@ -2993,7 +2322,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" ht="238" spans="1:21">
+    <row r="4" spans="1:21" ht="240.45" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>22969824</v>
       </c>
@@ -3058,7 +2387,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" ht="409.5" spans="1:21">
+    <row r="5" spans="1:21" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>23168012</v>
       </c>
@@ -3069,7 +2398,7 @@
         <v>63</v>
       </c>
       <c r="D5" s="6">
-        <v>4.039</v>
+        <v>4.0389999999999997</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>23</v>
@@ -3123,7 +2452,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" ht="392" spans="1:21">
+    <row r="6" spans="1:21" ht="396" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>23533487</v>
       </c>
@@ -3188,7 +2517,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" ht="409.5" spans="1:21">
+    <row r="7" spans="1:21" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>24359776</v>
       </c>
@@ -3253,7 +2582,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" ht="409.5" spans="1:21">
+    <row r="8" spans="1:21" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>25122164</v>
       </c>
@@ -3264,7 +2593,7 @@
         <v>95</v>
       </c>
       <c r="D8" s="3">
-        <v>3.752</v>
+        <v>3.7519999999999998</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>96</v>
@@ -3318,7 +2647,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" ht="322" spans="1:21">
+    <row r="9" spans="1:21" ht="325.3" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>25845699</v>
       </c>
@@ -3383,899 +2712,899 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" ht="182" spans="1:21">
-      <c r="A10" s="8">
-        <v>25861361</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:21" ht="282.89999999999998" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>26109848</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="6">
+        <v>4.319</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2.65</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="8" t="s">
+      <c r="I10" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="N10" s="3">
+      <c r="J10" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="N10" s="6">
         <v>2015</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R10" s="3" t="s">
+      <c r="O10" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>26445960</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4.782</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="N11" s="3">
+        <v>2015</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="311.14999999999998" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>26481378</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="6">
+        <v>3.887</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N12" s="6">
+        <v>2015</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="R12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U10" s="3" t="s">
+      <c r="S12" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="U12" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" ht="280" spans="1:21">
-      <c r="A11" s="5">
-        <v>26109848</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" s="6">
-        <v>4.319</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="N11" s="6">
+    <row r="13" spans="1:21" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>26590099</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="3">
+        <v>5.1950000000000003</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="N13" s="3">
         <v>2015</v>
       </c>
-      <c r="O11" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="P11" s="6" t="s">
+      <c r="O13" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="325.3" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>26879404</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" s="6">
+        <v>4.9960000000000004</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="N14" s="6">
+        <v>2016</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="353.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>26946470</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3.3860000000000001</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="N15" s="3">
+        <v>2016</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="282.89999999999998" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>27075394</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D16" s="6">
+        <v>4.9960000000000004</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="N16" s="6">
+        <v>2016</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="T16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="U16" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="183.9" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>27636716</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3.7519999999999998</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="N17" s="3">
+        <v>2016</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q17" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="Q11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R11" s="6" t="s">
+      <c r="R17" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="S11" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="T11" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="U11" s="6" t="s">
-        <v>72</v>
+      <c r="S17" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="12" ht="409.5" spans="1:21">
-      <c r="A12" s="8">
-        <v>26445960</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D12" s="3">
-        <v>4.782</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="N12" s="3">
-        <v>2015</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R12" s="3" t="s">
+    <row r="18" spans="1:21" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>28178619</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D18" s="6">
+        <v>7.4189999999999996</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="N18" s="6">
+        <v>2017</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="T18" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="U18" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="396" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>28303103</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D19" s="3">
+        <v>5.9880000000000004</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="N19" s="3">
+        <v>2017</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R19" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>72</v>
+      <c r="S19" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="13" ht="308" spans="1:21">
-      <c r="A13" s="5">
-        <v>26481378</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D13" s="6">
-        <v>3.887</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="N13" s="6">
-        <v>2015</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="R13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S13" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="T13" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="U13" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" ht="409.5" spans="1:21">
-      <c r="A14" s="8">
-        <v>26590099</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D14" s="3">
-        <v>5.195</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="N14" s="3">
-        <v>2015</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" ht="322" spans="1:21">
-      <c r="A15" s="5">
-        <v>26879404</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D15" s="6">
-        <v>4.996</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="N15" s="6">
-        <v>2016</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R15" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="S15" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="T15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="U15" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" ht="350" spans="1:21">
-      <c r="A16" s="8">
-        <v>26946470</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D16" s="3">
-        <v>3.386</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="N16" s="3">
-        <v>2016</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" ht="280" spans="1:21">
-      <c r="A17" s="5">
-        <v>27075394</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="D17" s="6">
-        <v>4.996</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="N17" s="6">
-        <v>2016</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="P17" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R17" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="S17" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="T17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="U17" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" ht="182" spans="1:21">
-      <c r="A18" s="8">
-        <v>27636716</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D18" s="3">
-        <v>3.752</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="N18" s="3">
-        <v>2016</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" ht="409.5" spans="1:21">
-      <c r="A19" s="5">
-        <v>28178619</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="D19" s="6">
-        <v>7.419</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="N19" s="6">
-        <v>2017</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="P19" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R19" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S19" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="T19" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="U19" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" ht="392" spans="1:21">
+    <row r="20" spans="1:21" ht="311.14999999999998" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
-        <v>28303103</v>
+        <v>29137256</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="D20" s="3">
-        <v>5.988</v>
+        <v>234</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>27</v>
+        <v>239</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="N20" s="3">
         <v>2017</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>105</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>27</v>
+        <v>242</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>106</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" ht="294" spans="1:21">
+    <row r="21" spans="1:21" ht="268.75" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
-        <v>28779167</v>
+        <v>29312001</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D21" s="6">
-        <v>4.996</v>
+        <v>4.7549999999999999</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>176</v>
+        <v>247</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>177</v>
+        <v>248</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>177</v>
+        <v>248</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>181</v>
+        <v>251</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="N21" s="6">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>247</v>
+        <v>105</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="R21" s="6" t="s">
         <v>106</v>
       </c>
       <c r="S21" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="T21" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="U21" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>29666587</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D22" s="3">
+        <v>4.7549999999999999</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="T21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="U21" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" ht="308" spans="1:21">
-      <c r="A22" s="8">
-        <v>29137256</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="G22" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>255</v>
-      </c>
       <c r="L22" s="3" t="s">
-        <v>255</v>
+        <v>27</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="N22" s="3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>258</v>
+        <v>27</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>106</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" ht="266" spans="1:21">
+    <row r="23" spans="1:21" ht="226.3" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
-        <v>29312001</v>
+        <v>29755361</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D23" s="6">
-        <v>4.755</v>
+        <v>4.7549999999999999</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>27</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N23" s="6">
         <v>2018</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q23" s="6" t="s">
         <v>27</v>
@@ -4284,128 +3613,128 @@
         <v>106</v>
       </c>
       <c r="S23" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="T23" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="U23" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" ht="409.5" spans="1:21">
+    <row r="24" spans="1:21" ht="396" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
-        <v>29666587</v>
+        <v>30651807</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D24" s="3">
-        <v>4.755</v>
+        <v>2.7509999999999999</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="N24" s="3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>104</v>
+        <v>283</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" ht="224" spans="1:21">
+    <row r="25" spans="1:21" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
-        <v>29755361</v>
+        <v>30943187</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D25" s="6">
-        <v>4.755</v>
+        <v>3.3860000000000001</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>263</v>
+        <v>181</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>264</v>
+        <v>182</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>264</v>
+        <v>182</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>267</v>
+        <v>186</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="N25" s="6">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>104</v>
+        <v>293</v>
       </c>
       <c r="Q25" s="6" t="s">
         <v>27</v>
@@ -4414,258 +3743,258 @@
         <v>106</v>
       </c>
       <c r="S25" s="6" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="T25" s="6" t="s">
-        <v>288</v>
+        <v>27</v>
       </c>
       <c r="U25" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" ht="392" spans="1:21">
+    <row r="26" spans="1:21" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
-        <v>30651807</v>
+        <v>30951366</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D26" s="3">
-        <v>2.751</v>
+        <v>5.125</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>295</v>
+        <v>300</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>27</v>
+        <v>302</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="N26" s="3">
         <v>2019</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>33</v>
+        <v>177</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>34</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="27" ht="409.5" spans="1:21">
-      <c r="A27" s="5">
-        <v>30943187</v>
+    <row r="27" spans="1:21" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
+        <v>31085230</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D27" s="6">
-        <v>3.386</v>
+        <v>10.334</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>188</v>
+        <v>310</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>189</v>
+        <v>311</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>189</v>
+        <v>311</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>306</v>
+        <v>313</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>193</v>
+        <v>314</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>194</v>
+        <v>315</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="N27" s="6">
         <v>2019</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="Q27" s="6" t="s">
         <v>27</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="T27" s="6" t="s">
-        <v>27</v>
+        <v>320</v>
       </c>
       <c r="U27" s="6" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="28" ht="409.5" spans="1:21">
+    <row r="28" spans="1:21" ht="381.9" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
-        <v>30951366</v>
+        <v>31278860</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="D28" s="3">
-        <v>5.125</v>
+        <v>5.2949999999999999</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>27</v>
+        <v>326</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>327</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="N28" s="3">
         <v>2019</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>184</v>
+        <v>104</v>
       </c>
       <c r="R28" s="3" t="s">
         <v>34</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="U28" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" ht="409.5" spans="1:21">
-      <c r="A29" s="9">
-        <v>31085230</v>
+    <row r="29" spans="1:21" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>32028240</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="D29" s="6">
-        <v>10.334</v>
+        <v>7.4189999999999996</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>326</v>
+        <v>210</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>327</v>
+        <v>211</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>327</v>
+        <v>211</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>27</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>330</v>
+        <v>214</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>331</v>
+        <v>215</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="N29" s="6">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="Q29" s="6" t="s">
         <v>27</v>
@@ -4674,323 +4003,323 @@
         <v>34</v>
       </c>
       <c r="S29" s="6" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="T29" s="6" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="U29" s="6" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="30" ht="378" spans="1:21">
+    <row r="30" spans="1:21" ht="226.3" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
-        <v>31278860</v>
+        <v>32881330</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="D30" s="3">
-        <v>5.295</v>
+        <v>5.2949999999999999</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="N30" s="3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>104</v>
+        <v>352</v>
       </c>
       <c r="R30" s="3" t="s">
         <v>34</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="U30" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" ht="409.5" spans="1:21">
+    <row r="31" spans="1:21" ht="240.45" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
-        <v>32028240</v>
+        <v>33582656</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D31" s="6">
-        <v>7.419</v>
+        <v>5.9550000000000001</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>217</v>
+        <v>357</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>218</v>
+        <v>358</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>218</v>
+        <v>358</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>27</v>
+        <v>360</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>361</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>221</v>
+        <v>362</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>222</v>
+        <v>362</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="N31" s="6">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>357</v>
+        <v>151</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>27</v>
+        <v>365</v>
       </c>
       <c r="R31" s="6" t="s">
         <v>34</v>
       </c>
       <c r="S31" s="6" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="T31" s="6" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="U31" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="325.3" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
+        <v>33679423</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="D32" s="3">
+        <v>4.7549999999999999</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="N32" s="3">
+        <v>2021</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="U32" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" ht="224" spans="1:21">
-      <c r="A32" s="8">
-        <v>32881330</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="D32" s="3">
-        <v>5.295</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="M32" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="N32" s="3">
-        <v>2020</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="U32" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" ht="238" spans="1:21">
+    <row r="33" spans="1:21" ht="367.75" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
-        <v>33582656</v>
+        <v>33953667</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="D33" s="6">
-        <v>5.955</v>
+        <v>5.9880000000000004</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>373</v>
+        <v>223</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>374</v>
+        <v>224</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>374</v>
+        <v>224</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>378</v>
+        <v>228</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>378</v>
+        <v>27</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="N33" s="6">
         <v>2021</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="P33" s="6" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>381</v>
+        <v>27</v>
       </c>
       <c r="R33" s="6" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="S33" s="6" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="T33" s="6" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="U33" s="6" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="34" ht="322" spans="1:21">
+    <row r="34" spans="1:21" ht="254.6" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
-        <v>33679423</v>
+        <v>34221074</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D34" s="3">
-        <v>4.755</v>
+        <v>2.65</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>263</v>
+        <v>53</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>264</v>
+        <v>54</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>264</v>
+        <v>54</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>267</v>
+        <v>57</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>27</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N34" s="3">
         <v>2021</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>90</v>
+        <v>379</v>
       </c>
       <c r="Q34" s="3" t="s">
         <v>27</v>
@@ -4999,264 +4328,264 @@
         <v>106</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>392</v>
+        <v>27</v>
       </c>
       <c r="U34" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" ht="364" spans="1:21">
+    <row r="35" spans="1:21" ht="367.75" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
-        <v>33953667</v>
+        <v>34320423</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D35" s="6">
-        <v>5.988</v>
+        <v>6.6559999999999997</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>230</v>
+        <v>396</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>231</v>
+        <v>397</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>231</v>
+        <v>397</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>397</v>
+        <v>399</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>235</v>
+        <v>400</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>27</v>
+        <v>401</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="N35" s="6">
         <v>2021</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q35" s="6" t="s">
         <v>27</v>
       </c>
       <c r="R35" s="6" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="S35" s="6" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="T35" s="6" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="U35" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" ht="252" spans="1:21">
+    <row r="36" spans="1:21" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
-        <v>34221074</v>
+        <v>34328102</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D36" s="3">
-        <v>2.65</v>
+        <v>7.4189999999999996</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>53</v>
+        <v>210</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>54</v>
+        <v>211</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>54</v>
+        <v>211</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>406</v>
+        <v>410</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>57</v>
+        <v>214</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>27</v>
+        <v>215</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="N36" s="3">
         <v>2021</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="Q36" s="3" t="s">
         <v>27</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>27</v>
+        <v>415</v>
       </c>
       <c r="U36" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" ht="364" spans="1:21">
+    <row r="37" spans="1:21" ht="311.14999999999998" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
-        <v>34320423</v>
+        <v>34975519</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="D37" s="6">
-        <v>6.656</v>
+        <v>4.7549999999999999</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>412</v>
+        <v>247</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>413</v>
+        <v>248</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>413</v>
+        <v>248</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>414</v>
+        <v>379</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>27</v>
+        <v>418</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>419</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>416</v>
+        <v>251</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>417</v>
+        <v>27</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="N37" s="6">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="P37" s="6" t="s">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="Q37" s="6" t="s">
         <v>27</v>
       </c>
       <c r="R37" s="6" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="S37" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="T37" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="U37" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" ht="409.5" spans="1:21">
+    <row r="38" spans="1:21" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
-        <v>34328102</v>
+        <v>35095486</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D38" s="3">
-        <v>7.419</v>
+        <v>5.9880000000000004</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>425</v>
+        <v>379</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="J38" s="3" t="s">
-        <v>27</v>
+      <c r="J38" s="8" t="s">
+        <v>427</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>222</v>
+        <v>27</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N38" s="3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="Q38" s="3" t="s">
         <v>27</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="S38" s="3" t="s">
         <v>430</v>
@@ -5268,9 +4597,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" ht="308" spans="1:21">
+    <row r="39" spans="1:21" ht="339.45" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
-        <v>34975519</v>
+        <v>35361037</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>432</v>
@@ -5279,301 +4608,166 @@
         <v>433</v>
       </c>
       <c r="D39" s="6">
-        <v>4.755</v>
+        <v>3.8889999999999998</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>263</v>
+        <v>434</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>264</v>
+        <v>435</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>264</v>
+        <v>435</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>395</v>
+        <v>436</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>267</v>
+        <v>439</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>27</v>
+        <v>440</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="N39" s="6">
         <v>2022</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="Q39" s="6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="R39" s="6" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="S39" s="6" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="T39" s="6" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="U39" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" ht="409.5" spans="1:21">
-      <c r="A40" s="8">
-        <v>35095486</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="D40" s="3">
-        <v>5.988</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M40" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="N40" s="3">
-        <v>2022</v>
-      </c>
-      <c r="O40" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="P40" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q40" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R40" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="S40" s="3" t="s">
         <v>446</v>
-      </c>
-      <c r="T40" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="U40" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" ht="336" spans="1:21">
-      <c r="A41" s="5">
-        <v>35361037</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="D41" s="6">
-        <v>3.889</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="M41" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="N41" s="6">
-        <v>2022</v>
-      </c>
-      <c r="O41" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="P41" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q41" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="R41" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S41" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="T41" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="U41" s="6" t="s">
-        <v>462</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A39" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="19203810"/>
-    <hyperlink ref="M2" r:id="rId2" display="10.1016/j.ijcard.2008.11.210"/>
-    <hyperlink ref="A3" r:id="rId3" display="22240383"/>
-    <hyperlink ref="M3" r:id="rId4" display="10.3233/CH-2011-1523"/>
-    <hyperlink ref="A4" r:id="rId5" display="22969824"/>
-    <hyperlink ref="J4" r:id="rId6" display="PMC3434420"/>
-    <hyperlink ref="M4" r:id="rId7" display="10.1155/2012/205451"/>
-    <hyperlink ref="A5" r:id="rId8" display="23168012"/>
-    <hyperlink ref="M5" r:id="rId9" display="10.1016/j.ijcard.2012.10.042"/>
-    <hyperlink ref="A6" r:id="rId10" display="23533487"/>
-    <hyperlink ref="J6" r:id="rId11" display="PMC3600323"/>
-    <hyperlink ref="M6" r:id="rId12" display="10.1155/2013/480597"/>
-    <hyperlink ref="A7" r:id="rId13" display="24359776"/>
-    <hyperlink ref="M7" r:id="rId14" display="10.1016/S1875-5364(13)60093-X"/>
-    <hyperlink ref="A8" r:id="rId15" display="25122164"/>
-    <hyperlink ref="J8" r:id="rId16" display="PMC4133204"/>
-    <hyperlink ref="M8" r:id="rId17" display="10.1371/journal.pone.0104255"/>
-    <hyperlink ref="A9" r:id="rId18" display="25845699"/>
-    <hyperlink ref="M9" r:id="rId19" display="10.1002/bmc.3468"/>
-    <hyperlink ref="A10" r:id="rId20" display="25861361"/>
-    <hyperlink ref="J10" r:id="rId21" display="PMC4377429"/>
-    <hyperlink ref="M10" r:id="rId22" display="10.1155/2015/415068"/>
-    <hyperlink ref="A11" r:id="rId23" display="26109848"/>
-    <hyperlink ref="J11" r:id="rId24" display="PMC4474392"/>
-    <hyperlink ref="M11" r:id="rId25" display="10.2147/DDDT.S82146"/>
-    <hyperlink ref="A12" r:id="rId26" display="26445960"/>
-    <hyperlink ref="J12" r:id="rId27" display="PMC4597456"/>
-    <hyperlink ref="M12" r:id="rId28" display="10.1186/s12906-015-0869-z"/>
-    <hyperlink ref="A13" r:id="rId29" display="26481378"/>
-    <hyperlink ref="M13" r:id="rId30" display="10.1016/S1875-5364(15)30078-9"/>
-    <hyperlink ref="A14" r:id="rId31" display="26590099"/>
-    <hyperlink ref="M14" r:id="rId32" display="10.1016/j.jep.2015.11.023"/>
-    <hyperlink ref="A15" r:id="rId33" display="26879404"/>
-    <hyperlink ref="J15" r:id="rId34" display="PMC4754750"/>
-    <hyperlink ref="M15" r:id="rId35" display="10.1038/srep21146"/>
-    <hyperlink ref="A16" r:id="rId36" display="26946470"/>
-    <hyperlink ref="J16" r:id="rId37" display="PMC4784548"/>
-    <hyperlink ref="M16" r:id="rId38" display="10.12659/msm.895655"/>
-    <hyperlink ref="A17" r:id="rId39" display="27075394"/>
-    <hyperlink ref="J17" r:id="rId40" display="PMC4830957"/>
-    <hyperlink ref="M17" r:id="rId41" display="10.1038/srep24383"/>
-    <hyperlink ref="A18" r:id="rId42" display="27636716"/>
-    <hyperlink ref="J18" r:id="rId43" display="PMC5026381"/>
-    <hyperlink ref="M18" r:id="rId44" display="10.1371/journal.pone.0162873"/>
-    <hyperlink ref="A19" r:id="rId45" display="28178619"/>
-    <hyperlink ref="M19" r:id="rId46" display="10.1016/j.biopha.2017.01.096"/>
-    <hyperlink ref="A20" r:id="rId47" display="28303103"/>
-    <hyperlink ref="J20" r:id="rId48" display="PMC5332380"/>
-    <hyperlink ref="M20" r:id="rId49" display="10.3389/fphar.2017.00098"/>
-    <hyperlink ref="A21" r:id="rId50" display="28779167"/>
-    <hyperlink ref="J21" r:id="rId51" display="PMC5544742"/>
-    <hyperlink ref="M21" r:id="rId52" display="10.1038/s41598-017-07659-x"/>
-    <hyperlink ref="A22" r:id="rId53" display="29137256"/>
-    <hyperlink ref="J22" r:id="rId54" display="PMC5669882"/>
-    <hyperlink ref="M22" r:id="rId55" display="10.18632/oncotarget.19072"/>
-    <hyperlink ref="A23" r:id="rId56" display="29312001"/>
-    <hyperlink ref="J23" r:id="rId57" display="PMC5743021"/>
-    <hyperlink ref="M23" r:id="rId58" display="10.3389/fphys.2017.01090"/>
-    <hyperlink ref="A24" r:id="rId59" display="29666587"/>
-    <hyperlink ref="J24" r:id="rId60" display="PMC5891926"/>
-    <hyperlink ref="M24" r:id="rId61" display="10.3389/fphys.2018.00324"/>
-    <hyperlink ref="A25" r:id="rId62" display="29755361"/>
-    <hyperlink ref="J25" r:id="rId63" display="PMC5932340"/>
-    <hyperlink ref="M25" r:id="rId64" display="10.3389/fphys.2018.00389"/>
-    <hyperlink ref="A26" r:id="rId65" display="30651807"/>
-    <hyperlink ref="J26" r:id="rId66" display="PMC6307364"/>
-    <hyperlink ref="M26" r:id="rId67" display="10.3892/etm.2018.6957"/>
-    <hyperlink ref="A27" r:id="rId68" display="30943187"/>
-    <hyperlink ref="J27" r:id="rId69" display="PMC6459050"/>
-    <hyperlink ref="M27" r:id="rId70" display="10.12659/MSM.915194"/>
-    <hyperlink ref="A28" r:id="rId71" display="30951366"/>
-    <hyperlink ref="M28" r:id="rId72" display="10.1152/ajpheart.00731.2018"/>
-    <hyperlink ref="A29" r:id="rId73" display="31085230"/>
-    <hyperlink ref="M29" r:id="rId74" display="10.1016/j.phrs.2019.104272"/>
-    <hyperlink ref="A30" r:id="rId75" display="31278860"/>
-    <hyperlink ref="J30" r:id="rId76" display="PMC6714141"/>
-    <hyperlink ref="M30" r:id="rId77" display="10.1111/jcmm.14527"/>
-    <hyperlink ref="A31" r:id="rId78" display="32028240"/>
-    <hyperlink ref="M31" r:id="rId79" display="10.1016/j.biopha.2020.109945"/>
-    <hyperlink ref="A32" r:id="rId80" display="32881330"/>
-    <hyperlink ref="J32" r:id="rId81" display="PMC7576289"/>
-    <hyperlink ref="M32" r:id="rId82" display="10.1111/jcmm.15695"/>
-    <hyperlink ref="A33" r:id="rId83" display="33582656"/>
-    <hyperlink ref="J33" r:id="rId84" display="PMC7950250"/>
-    <hyperlink ref="M33" r:id="rId85" display="10.18632/aging.202482"/>
-    <hyperlink ref="A34" r:id="rId86" display="33679423"/>
-    <hyperlink ref="J34" r:id="rId87" display="PMC7933526"/>
-    <hyperlink ref="M34" r:id="rId88" display="10.3389/fphys.2020.613324"/>
-    <hyperlink ref="A35" r:id="rId89" display="33953667"/>
-    <hyperlink ref="J35" r:id="rId90" display="PMC8089377"/>
-    <hyperlink ref="M35" r:id="rId91" display="10.3389/fphar.2021.588587"/>
-    <hyperlink ref="A36" r:id="rId92" display="34221074"/>
-    <hyperlink ref="J36" r:id="rId93" display="PMC8225423"/>
-    <hyperlink ref="M36" r:id="rId94" display="10.1155/2021/5536723"/>
-    <hyperlink ref="A37" r:id="rId95" display="34320423"/>
-    <hyperlink ref="M37" r:id="rId96" display="10.1016/j.phymed.2021.153633"/>
-    <hyperlink ref="A38" r:id="rId97" display="34328102"/>
-    <hyperlink ref="M38" r:id="rId98" display="10.1016/j.biopha.2021.111941"/>
-    <hyperlink ref="A39" r:id="rId99" display="34975519"/>
-    <hyperlink ref="J39" r:id="rId100" display="PMC8718710"/>
-    <hyperlink ref="M39" r:id="rId101" display="10.3389/fphys.2021.753761"/>
-    <hyperlink ref="A40" r:id="rId102" display="35095486"/>
-    <hyperlink ref="J40" r:id="rId103" display="PMC8790519"/>
-    <hyperlink ref="M40" r:id="rId104" display="10.3389/fphar.2021.759027"/>
-    <hyperlink ref="A41" r:id="rId105" display="35361037"/>
-    <hyperlink ref="J41" r:id="rId106" display="PMC8979511"/>
-    <hyperlink ref="M41" r:id="rId107" display="10.1080/13880209.2022.2056206"/>
+    <hyperlink ref="A2" r:id="rId1" display="19203810" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId3" display="22240383" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A4" r:id="rId5" display="22969824" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="M4" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A5" r:id="rId8" display="23168012" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="M5" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A6" r:id="rId10" display="23533487" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J6" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="M6" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A7" r:id="rId13" display="24359776" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="M7" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A8" r:id="rId15" display="25122164" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J8" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="M8" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A9" r:id="rId18" display="25845699" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="M9" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A10" r:id="rId20" display="26109848" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="J10" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="M10" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A11" r:id="rId23" display="26445960" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="J11" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="M11" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A12" r:id="rId26" display="26481378" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="M12" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A13" r:id="rId28" display="26590099" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="M13" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A14" r:id="rId30" display="26879404" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="J14" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="M14" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A15" r:id="rId33" display="26946470" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="J15" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="M15" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A16" r:id="rId36" display="27075394" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="J16" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="M16" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A17" r:id="rId39" display="27636716" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="J17" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="M17" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="A18" r:id="rId42" display="28178619" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="M18" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="A19" r:id="rId44" display="28303103" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="J19" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="M19" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="A20" r:id="rId47" display="29137256" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="J20" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="M20" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="A21" r:id="rId50" display="29312001" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="J21" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="M21" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="A22" r:id="rId53" display="29666587" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="J22" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="M22" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="A23" r:id="rId56" display="29755361" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="J23" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="M23" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="A24" r:id="rId59" display="30651807" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="J24" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="M24" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="A25" r:id="rId62" display="30943187" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="J25" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="M25" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="A26" r:id="rId65" display="30951366" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="M26" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="A27" r:id="rId67" display="31085230" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="M27" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="A28" r:id="rId69" display="31278860" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="J28" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="M28" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="A29" r:id="rId72" display="32028240" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="M29" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="A30" r:id="rId74" display="32881330" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="J30" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="M30" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="A31" r:id="rId77" display="33582656" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="J31" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="M31" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="A32" r:id="rId80" display="33679423" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="J32" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="M32" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="A33" r:id="rId83" display="33953667" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="J33" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="M33" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="A34" r:id="rId86" display="34221074" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="J34" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="M34" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="A35" r:id="rId89" display="34320423" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="M35" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="A36" r:id="rId91" display="34328102" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="M36" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="A37" r:id="rId93" display="34975519" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="J37" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="M37" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="A38" r:id="rId96" display="35095486" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="J38" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="M38" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="A39" r:id="rId99" display="35361037" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="J39" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="M39" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>